--- a/data/trans_orig/P16B97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{711ECABC-E282-4163-8FC9-72F7465ACBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB05E18-69FE-45DD-A98F-69E1910BEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF1C5AB0-D94E-4BD8-9D21-B7BC6CDD9A69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AECB551B-F479-4450-90AF-EB94FE8C27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="195">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -136,91 +136,91 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>90,89%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
     <t>97,51%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -229,13 +229,13 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -247,7 +247,7 @@
     <t>94,59%</t>
   </si>
   <si>
-    <t>73,96%</t>
+    <t>73,52%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -256,13 +256,13 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>86,5%</t>
+    <t>86,33%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>26,04%</t>
+    <t>26,48%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -271,7 +271,7 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>13,5%</t>
+    <t>13,67%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -280,13 +280,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>93,94%</t>
+    <t>94,04%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -295,13 +295,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>98,04%</t>
@@ -325,19 +325,19 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>92,87%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>93,63%</t>
+    <t>93,74%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -346,13 +346,13 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,13%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>2,21%</t>
@@ -361,7 +361,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>6,26%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -370,13 +370,13 @@
     <t>98,3%</t>
   </si>
   <si>
-    <t>94,35%</t>
+    <t>93,79%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>96,44%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -385,25 +385,25 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>5,65%</t>
+    <t>6,21%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>98,32%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,2%</t>
+    <t>97,25%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -412,16 +412,16 @@
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -430,16 +430,16 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
@@ -457,13 +457,13 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>91,28%</t>
+    <t>90,17%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>94,07%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -472,151 +472,157 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>8,72%</t>
+    <t>9,83%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>90,28%</t>
+    <t>91,18%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>93,72%</t>
+    <t>93,08%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>94,15%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E69891B-135A-40AA-860A-047B44C14DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4533B491-E363-477D-AE62-63624835EDB2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ECC4A2-91DF-4B5D-A3E7-B9A9F80F61E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E079FF-F100-4296-A382-BEFBE28EEEC0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3154,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476415E2-FA95-44A2-AF3E-CB9379C21409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585612DF-78BB-48A2-AC18-2A4B20E9A8F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,7 +3937,7 @@
         <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3955,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3970,7 +3976,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3979,13 +3985,13 @@
         <v>2969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +4059,10 @@
         <v>229185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4068,13 +4074,13 @@
         <v>359399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -4083,13 +4089,13 @@
         <v>588583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4110,13 @@
         <v>2109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4119,13 +4125,13 @@
         <v>7487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4134,13 +4140,13 @@
         <v>9597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB05E18-69FE-45DD-A98F-69E1910BEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2BE84C0-1CC7-414D-A1D2-BC44CE68512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AECB551B-F479-4450-90AF-EB94FE8C27FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA09F71B-3C0F-4CB7-8EFB-E944E9E02BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="193">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -127,7 +127,7 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -136,13 +136,13 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>90,92%</t>
+    <t>88,73%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>92,22%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -151,16 +151,16 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>11,27%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -187,25 +187,25 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>85,89%</t>
+    <t>85,81%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>92,11%</t>
+    <t>92,51%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>14,11%</t>
+    <t>14,19%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>7,89%</t>
+    <t>7,49%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -214,7 +214,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -229,7 +229,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -247,7 +247,7 @@
     <t>94,59%</t>
   </si>
   <si>
-    <t>73,52%</t>
+    <t>69,38%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -256,13 +256,13 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>86,33%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>26,48%</t>
+    <t>30,62%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -271,7 +271,7 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -280,13 +280,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>94,71%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>96,46%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -295,13 +295,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>98,04%</t>
@@ -325,19 +325,19 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>92,87%</t>
+    <t>92,13%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>90,55%</t>
+    <t>91,49%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>93,74%</t>
+    <t>92,73%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -346,13 +346,13 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,13%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>2,21%</t>
@@ -361,7 +361,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>7,27%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -370,13 +370,13 @@
     <t>98,3%</t>
   </si>
   <si>
-    <t>93,79%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>96,14%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -385,64 +385,64 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>6,21%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>3,86%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,36%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 8,43%)</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -457,13 +457,13 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>90,17%</t>
+    <t>91,24%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>94,62%</t>
+    <t>94,36%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -472,31 +472,31 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>8,76%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,64%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>91,18%</t>
+    <t>91,35%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>93,08%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>94,57%</t>
+    <t>94,81%</t>
   </si>
   <si>
     <t>99,43%</t>
@@ -505,13 +505,13 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>8,65%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>6,92%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>2,32%</t>
@@ -520,7 +520,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,43%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -529,13 +529,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>91,53%</t>
+    <t>91,1%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>94,92%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -544,85 +544,79 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>8,47%</t>
+    <t>8,9%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,05%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>93,56%</t>
+    <t>94,15%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>8,95%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>5,85%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,74%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>2,97%</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4533B491-E363-477D-AE62-63624835EDB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA1FDDB-45F1-48F4-8C92-279105CB43D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E079FF-F100-4296-A382-BEFBE28EEEC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9C31EA-4338-46AC-B944-BA1E15FEC26F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585612DF-78BB-48A2-AC18-2A4B20E9A8F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92738DF-C394-4580-B00D-513949395124}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,7 +4089,7 @@
         <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4104,13 @@
         <v>2109</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4125,13 +4119,13 @@
         <v>7487</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4140,13 +4134,13 @@
         <v>9597</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
